--- a/NEW HR/PAGLINAWAN JESSIE.xlsx
+++ b/NEW HR/PAGLINAWAN JESSIE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="58">
   <si>
     <t>PERIOD</t>
   </si>
@@ -582,26 +582,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1491,10 +1491,10 @@
   </sheetPr>
   <dimension ref="A2:K66"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A43" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
+      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1524,14 +1524,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1542,16 +1542,16 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="52">
+      <c r="F3" s="51">
         <v>42196</v>
       </c>
-      <c r="G3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -1564,14 +1564,14 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1597,18 +1597,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1655,7 +1655,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>30</v>
+        <v>31.25</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1665,7 +1665,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>38</v>
+        <v>39.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -2726,15 +2726,19 @@
       <c r="K59" s="21"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="24"/>
+      <c r="A60" s="24">
+        <v>44986</v>
+      </c>
       <c r="B60" s="13"/>
-      <c r="C60" s="14"/>
+      <c r="C60" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D60" s="13"/>
       <c r="E60" s="10"/>
       <c r="F60" s="13"/>
-      <c r="G60" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G60" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H60" s="12"/>
       <c r="I60" s="9"/>
@@ -2839,17 +2843,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -2884,10 +2888,10 @@
   </sheetPr>
   <dimension ref="A2:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A7" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2917,14 +2921,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -2935,16 +2939,16 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="52">
+      <c r="F3" s="51">
         <v>42196</v>
       </c>
-      <c r="G3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -2957,14 +2961,14 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -2990,18 +2994,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3058,7 +3062,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>61.292000000000002</v>
+        <v>60.292000000000002</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3356,8 +3360,12 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="13"/>
+      <c r="A23" s="24">
+        <v>44986</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>48</v>
+      </c>
       <c r="C23" s="14"/>
       <c r="D23" s="13"/>
       <c r="E23" s="10"/>
@@ -3366,10 +3374,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H23" s="12"/>
+      <c r="H23" s="12">
+        <v>1</v>
+      </c>
       <c r="I23" s="9"/>
       <c r="J23" s="12"/>
-      <c r="K23" s="21"/>
+      <c r="K23" s="39">
+        <v>44987</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>

--- a/NEW HR/PAGLINAWAN JESSIE.xlsx
+++ b/NEW HR/PAGLINAWAN JESSIE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="58">
   <si>
     <t>PERIOD</t>
   </si>
@@ -443,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -582,15 +582,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -600,9 +603,6 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -611,6 +611,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1491,7 +1494,7 @@
   </sheetPr>
   <dimension ref="A2:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A43" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
       <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
@@ -1524,14 +1527,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1542,16 +1545,16 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="51">
+      <c r="F3" s="52">
         <v>42196</v>
       </c>
-      <c r="G3" s="49"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -1564,14 +1567,14 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="50"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="49"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1597,18 +1600,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2843,17 +2846,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -2888,10 +2891,10 @@
   </sheetPr>
   <dimension ref="A2:K29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A7" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2921,14 +2924,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -2939,16 +2942,16 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="51">
+      <c r="F3" s="52">
         <v>42196</v>
       </c>
-      <c r="G3" s="49"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -2961,14 +2964,14 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="50"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="49"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -2994,18 +2997,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3062,7 +3065,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>60.292000000000002</v>
+        <v>59.292000000000002</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3385,7 +3388,9 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>
-      <c r="B24" s="13"/>
+      <c r="B24" s="13" t="s">
+        <v>48</v>
+      </c>
       <c r="C24" s="14"/>
       <c r="D24" s="13"/>
       <c r="E24" s="10"/>
@@ -3394,10 +3399,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H24" s="13"/>
+      <c r="H24" s="13">
+        <v>1</v>
+      </c>
       <c r="I24" s="10"/>
       <c r="J24" s="13"/>
-      <c r="K24" s="16"/>
+      <c r="K24" s="58">
+        <v>45013</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="24"/>

--- a/NEW HR/PAGLINAWAN JESSIE.xlsx
+++ b/NEW HR/PAGLINAWAN JESSIE.xlsx
@@ -579,6 +579,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -611,9 +614,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1519,62 +1519,62 @@
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="47"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="52">
+      <c r="F3" s="53">
         <v>42196</v>
       </c>
-      <c r="G3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="47"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1600,18 +1600,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2892,9 +2892,9 @@
   <dimension ref="A2:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A7" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A10" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2916,62 +2916,62 @@
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="47"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="52">
+      <c r="F3" s="53">
         <v>42196</v>
       </c>
-      <c r="G3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="47"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -2997,18 +2997,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3065,7 +3065,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>59.292000000000002</v>
+        <v>58.292000000000002</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3270,9 +3270,7 @@
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="12"/>
-      <c r="K18" s="21" t="s">
-        <v>54</v>
-      </c>
+      <c r="K18" s="21"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="38" t="s">
@@ -3404,13 +3402,17 @@
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="13"/>
-      <c r="K24" s="58">
+      <c r="K24" s="47">
         <v>45013</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="12"/>
+      <c r="A25" s="24">
+        <v>45017</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="C25" s="14"/>
       <c r="D25" s="12"/>
       <c r="E25" s="9"/>
@@ -3419,10 +3421,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H25" s="12"/>
+      <c r="H25" s="12">
+        <v>1</v>
+      </c>
       <c r="I25" s="9"/>
       <c r="J25" s="12"/>
-      <c r="K25" s="21"/>
+      <c r="K25" s="39">
+        <v>45040</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="24"/>
@@ -3551,17 +3557,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="J1" s="56" t="s">
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="J1" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
@@ -3640,12 +3646,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="46"/>
-      <c r="I6" s="57" t="s">
+      <c r="I6" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="40">

--- a/NEW HR/PAGLINAWAN JESSIE.xlsx
+++ b/NEW HR/PAGLINAWAN JESSIE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="60">
   <si>
     <t>PERIOD</t>
   </si>
@@ -218,6 +218,12 @@
   </si>
   <si>
     <t>2/2,9/2023</t>
+  </si>
+  <si>
+    <t>CENRO</t>
+  </si>
+  <si>
+    <t>5/13,15/2023</t>
   </si>
 </sst>
 </file>
@@ -585,26 +591,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1527,14 +1533,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1545,16 +1551,16 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="52">
         <v>42196</v>
       </c>
-      <c r="G3" s="49"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -1567,14 +1573,14 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1600,18 +1606,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2846,17 +2852,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -2893,8 +2899,8 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A10" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2924,14 +2930,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -2942,16 +2948,16 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="52">
         <v>42196</v>
       </c>
-      <c r="G3" s="49"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -2964,14 +2970,16 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
+      <c r="F4" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="50"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -2997,18 +3005,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3065,7 +3073,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>58.292000000000002</v>
+        <v>56.292000000000002</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3431,8 +3439,12 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="12"/>
+      <c r="A26" s="24">
+        <v>45047</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="C26" s="14"/>
       <c r="D26" s="12"/>
       <c r="E26" s="9"/>
@@ -3441,10 +3453,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H26" s="12"/>
+      <c r="H26" s="12">
+        <v>2</v>
+      </c>
       <c r="I26" s="9"/>
       <c r="J26" s="12"/>
-      <c r="K26" s="21"/>
+      <c r="K26" s="21" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="24"/>

--- a/NEW HR/PAGLINAWAN JESSIE.xlsx
+++ b/NEW HR/PAGLINAWAN JESSIE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="60">
   <si>
     <t>PERIOD</t>
   </si>
@@ -591,15 +591,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -608,9 +611,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1500,7 +1500,7 @@
   </sheetPr>
   <dimension ref="A2:K66"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A43" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
       <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
@@ -1533,14 +1533,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1551,16 +1551,16 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="52">
+      <c r="F3" s="53">
         <v>42196</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -1573,14 +1573,14 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1606,18 +1606,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2852,17 +2852,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -2897,10 +2897,10 @@
   </sheetPr>
   <dimension ref="A2:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A10" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2930,14 +2930,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -2948,16 +2948,16 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="52">
+      <c r="F3" s="53">
         <v>42196</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -2970,16 +2970,16 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="50"/>
+      <c r="G4" s="49"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3005,18 +3005,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3073,7 +3073,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>56.292000000000002</v>
+        <v>55.292000000000002</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3464,7 +3464,9 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="24"/>
-      <c r="B27" s="12"/>
+      <c r="B27" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="C27" s="14"/>
       <c r="D27" s="12"/>
       <c r="E27" s="9"/>
@@ -3473,10 +3475,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H27" s="12"/>
+      <c r="H27" s="12">
+        <v>1</v>
+      </c>
       <c r="I27" s="9"/>
       <c r="J27" s="12"/>
-      <c r="K27" s="21"/>
+      <c r="K27" s="39">
+        <v>45078</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="24"/>

--- a/NEW HR/PAGLINAWAN JESSIE.xlsx
+++ b/NEW HR/PAGLINAWAN JESSIE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8AB78C-20C6-42FD-A495-F1A625A26146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="24" yWindow="48" windowWidth="23016" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -26,25 +27,17 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="60">
   <si>
     <t>PERIOD</t>
   </si>
@@ -208,9 +201,6 @@
     <t>10/4-5/2022</t>
   </si>
   <si>
-    <t>12/</t>
-  </si>
-  <si>
     <t>2023</t>
   </si>
   <si>
@@ -224,12 +214,15 @@
   </si>
   <si>
     <t>5/13,15/2023</t>
+  </si>
+  <si>
+    <t>2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -449,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -591,27 +584,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -620,6 +613,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1122,7 +1118,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1139,25 +1135,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K66" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K84" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1169,25 +1165,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K29" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K29" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1494,34 +1490,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K66"/>
+  <dimension ref="A2:K84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A43" activePane="bottomLeft"/>
-      <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
+      <pane ySplit="3696" topLeftCell="A73" activePane="bottomLeft"/>
+      <selection activeCell="D150" sqref="D150"/>
+      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -1533,16 +1529,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -1551,18 +1547,18 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="52">
         <v>42196</v>
       </c>
-      <c r="G3" s="49"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -1573,16 +1569,16 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="50"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -1590,7 +1586,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -1603,24 +1599,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1655,7 +1651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1664,7 +1660,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>31.25</v>
+        <v>57.5</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1674,14 +1670,14 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>39.25</v>
+        <v>82.5</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="14"/>
@@ -1701,480 +1697,471 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
-        <v>43770</v>
-      </c>
-      <c r="B11" s="12"/>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="59">
+        <v>43131</v>
+      </c>
+      <c r="B11" s="21"/>
       <c r="C11" s="14">
         <v>1.25</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="12"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="14">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="9"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="35"/>
       <c r="J11" s="12"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
-        <v>43800</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>44</v>
-      </c>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="59">
+        <v>43159</v>
+      </c>
+      <c r="B12" s="21"/>
       <c r="C12" s="14">
         <v>1.25</v>
       </c>
-      <c r="D12" s="12">
-        <v>5</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="12"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="14">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="9"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="35"/>
       <c r="J12" s="12"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="9"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="59">
+        <v>43190</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D13" s="42"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H13" s="42"/>
+      <c r="I13" s="35"/>
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
-        <v>43831</v>
-      </c>
-      <c r="B14" s="12"/>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="59">
+        <v>43220</v>
+      </c>
+      <c r="B14" s="21"/>
       <c r="C14" s="14">
         <v>1.25</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="12"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="14">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="9"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="35"/>
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
-        <v>43862</v>
-      </c>
-      <c r="B15" s="12"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="59">
+        <v>43251</v>
+      </c>
+      <c r="B15" s="21"/>
       <c r="C15" s="14">
         <v>1.25</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="12"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="21"/>
       <c r="G15" s="14">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="9"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="35"/>
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
-        <v>43891</v>
-      </c>
-      <c r="B16" s="12"/>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="59">
+        <v>43281</v>
+      </c>
+      <c r="B16" s="21"/>
       <c r="C16" s="14">
         <v>1.25</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="12"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="21"/>
       <c r="G16" s="14">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="9"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="35"/>
       <c r="J16" s="12"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
-        <v>43922</v>
-      </c>
-      <c r="B17" s="12"/>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="59">
+        <v>43312</v>
+      </c>
+      <c r="B17" s="21"/>
       <c r="C17" s="14">
         <v>1.25</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="12"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="21"/>
       <c r="G17" s="14">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="9"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="35"/>
       <c r="J17" s="12"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
-        <v>43952</v>
-      </c>
-      <c r="B18" s="12"/>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="59">
+        <v>43343</v>
+      </c>
+      <c r="B18" s="21"/>
       <c r="C18" s="14">
         <v>1.25</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="12"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="21"/>
       <c r="G18" s="14">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="9"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="35"/>
       <c r="J18" s="12"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
-        <v>43983</v>
-      </c>
-      <c r="B19" s="12"/>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="59">
+        <v>43373</v>
+      </c>
+      <c r="B19" s="21"/>
       <c r="C19" s="14">
         <v>1.25</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="12"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="21"/>
       <c r="G19" s="14">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="9"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="35"/>
       <c r="J19" s="12"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
-        <v>44013</v>
-      </c>
-      <c r="B20" s="12"/>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="59">
+        <v>43404</v>
+      </c>
+      <c r="B20" s="21"/>
       <c r="C20" s="14">
         <v>1.25</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="12"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="21"/>
       <c r="G20" s="14">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="9"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="35"/>
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
-        <v>44044</v>
-      </c>
-      <c r="B21" s="12"/>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="59">
+        <v>43434</v>
+      </c>
+      <c r="B21" s="21"/>
       <c r="C21" s="14">
         <v>1.25</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="12"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="14">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="9"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="35"/>
       <c r="J21" s="12"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="24">
-        <v>44075</v>
-      </c>
-      <c r="B22" s="12"/>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="59">
+        <v>43465</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>44</v>
+      </c>
       <c r="C22" s="14">
         <v>1.25</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="12"/>
+      <c r="D22" s="42">
+        <v>5</v>
+      </c>
+      <c r="E22" s="35"/>
+      <c r="F22" s="21"/>
       <c r="G22" s="14">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="9"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="35"/>
       <c r="J22" s="12"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
-        <v>44105</v>
-      </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="16"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="24">
-        <v>44136</v>
-      </c>
-      <c r="B24" s="12"/>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H23" s="42"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="21"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="59">
+        <v>43496</v>
+      </c>
+      <c r="B24" s="21"/>
       <c r="C24" s="14">
         <v>1.25</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="12"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="21"/>
       <c r="G24" s="14">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="9"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="35"/>
       <c r="J24" s="12"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="24">
-        <v>44166</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>44</v>
-      </c>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="59">
+        <v>43524</v>
+      </c>
+      <c r="B25" s="21"/>
       <c r="C25" s="14">
         <v>1.25</v>
       </c>
-      <c r="D25" s="12">
-        <v>5</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="12"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="21"/>
       <c r="G25" s="14">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="9"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="35"/>
       <c r="J25" s="12"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="9"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="59">
+        <v>43555</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D26" s="42"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H26" s="42"/>
+      <c r="I26" s="35"/>
       <c r="J26" s="12"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="24">
-        <v>44197</v>
-      </c>
-      <c r="B27" s="12"/>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="59">
+        <v>43585</v>
+      </c>
+      <c r="B27" s="21"/>
       <c r="C27" s="14">
         <v>1.25</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="12"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="21"/>
       <c r="G27" s="14">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="9"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="35"/>
       <c r="J27" s="12"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="24">
-        <f>EDATE(A27,1)</f>
-        <v>44228</v>
-      </c>
-      <c r="B28" s="12"/>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="59">
+        <v>43616</v>
+      </c>
+      <c r="B28" s="21"/>
       <c r="C28" s="14">
         <v>1.25</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="12"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="21"/>
       <c r="G28" s="14">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="9"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="35"/>
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="24">
-        <f t="shared" ref="A29:A37" si="0">EDATE(A28,1)</f>
-        <v>44256</v>
-      </c>
-      <c r="B29" s="12"/>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="59">
+        <v>43646</v>
+      </c>
+      <c r="B29" s="21"/>
       <c r="C29" s="14">
         <v>1.25</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="12"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="21"/>
       <c r="G29" s="14">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H29" s="12"/>
-      <c r="I29" s="9"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="35"/>
       <c r="J29" s="12"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="24">
-        <f t="shared" si="0"/>
-        <v>44287</v>
-      </c>
-      <c r="B30" s="12"/>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="59">
+        <v>43677</v>
+      </c>
+      <c r="B30" s="21"/>
       <c r="C30" s="14">
         <v>1.25</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="12"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="21"/>
       <c r="G30" s="14">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H30" s="12"/>
-      <c r="I30" s="9"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="35"/>
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="24">
-        <f t="shared" si="0"/>
-        <v>44317</v>
-      </c>
-      <c r="B31" s="12"/>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="59">
+        <v>43708</v>
+      </c>
+      <c r="B31" s="21"/>
       <c r="C31" s="14">
         <v>1.25</v>
       </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="12"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="21"/>
       <c r="G31" s="14">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H31" s="12"/>
-      <c r="I31" s="9"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="35"/>
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="24">
-        <f t="shared" si="0"/>
-        <v>44348</v>
-      </c>
-      <c r="B32" s="12"/>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="59">
+        <v>43738</v>
+      </c>
+      <c r="B32" s="21"/>
       <c r="C32" s="14">
         <v>1.25</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="12"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="21"/>
       <c r="G32" s="14">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H32" s="12"/>
-      <c r="I32" s="9"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="35"/>
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="24">
-        <f t="shared" si="0"/>
-        <v>44378</v>
-      </c>
-      <c r="B33" s="12"/>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="59">
+        <v>43769</v>
+      </c>
+      <c r="B33" s="21"/>
       <c r="C33" s="14">
         <v>1.25</v>
       </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="12"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="21"/>
       <c r="G33" s="14">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H33" s="12"/>
-      <c r="I33" s="9"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="35"/>
       <c r="J33" s="12"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="24">
-        <f t="shared" si="0"/>
-        <v>44409</v>
+        <v>43770</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="14">
@@ -2192,16 +2179,19 @@
       <c r="J34" s="12"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="24">
-        <f t="shared" si="0"/>
-        <v>44440</v>
-      </c>
-      <c r="B35" s="12"/>
+        <v>43800</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="C35" s="14">
         <v>1.25</v>
       </c>
-      <c r="D35" s="12"/>
+      <c r="D35" s="12">
+        <v>5</v>
+      </c>
       <c r="E35" s="9"/>
       <c r="F35" s="12"/>
       <c r="G35" s="14">
@@ -2213,31 +2203,27 @@
       <c r="J35" s="12"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="24">
-        <f t="shared" si="0"/>
-        <v>44470</v>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="38" t="s">
+        <v>45</v>
       </c>
       <c r="B36" s="12"/>
-      <c r="C36" s="14">
-        <v>1.25</v>
-      </c>
+      <c r="C36" s="14"/>
       <c r="D36" s="12"/>
       <c r="E36" s="9"/>
       <c r="F36" s="12"/>
-      <c r="G36" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G36" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H36" s="12"/>
       <c r="I36" s="9"/>
       <c r="J36" s="12"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="24">
-        <f t="shared" si="0"/>
-        <v>44501</v>
+        <v>43831</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="14">
@@ -2255,20 +2241,15 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="24">
-        <f>EDATE(A37,1)</f>
-        <v>44531</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>44</v>
-      </c>
+        <v>43862</v>
+      </c>
+      <c r="B38" s="12"/>
       <c r="C38" s="14">
         <v>1.25</v>
       </c>
-      <c r="D38" s="12">
-        <v>5</v>
-      </c>
+      <c r="D38" s="12"/>
       <c r="E38" s="9"/>
       <c r="F38" s="12"/>
       <c r="G38" s="14">
@@ -2280,27 +2261,29 @@
       <c r="J38" s="12"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="38" t="s">
-        <v>47</v>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="24">
+        <v>43891</v>
       </c>
       <c r="B39" s="12"/>
-      <c r="C39" s="14"/>
+      <c r="C39" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D39" s="12"/>
       <c r="E39" s="9"/>
       <c r="F39" s="12"/>
-      <c r="G39" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G39" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H39" s="12"/>
       <c r="I39" s="9"/>
       <c r="J39" s="12"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="24">
-        <v>44562</v>
+        <v>43922</v>
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="14">
@@ -2318,10 +2301,9 @@
       <c r="J40" s="12"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="24">
-        <f>EDATE(A40,1)</f>
-        <v>44593</v>
+        <v>43952</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="14">
@@ -2339,10 +2321,9 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="24">
-        <f t="shared" ref="A42:A46" si="1">EDATE(A41,1)</f>
-        <v>44621</v>
+        <v>43983</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="14">
@@ -2360,10 +2341,9 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="24">
-        <f t="shared" si="1"/>
-        <v>44652</v>
+        <v>44013</v>
       </c>
       <c r="B43" s="12"/>
       <c r="C43" s="14">
@@ -2381,10 +2361,9 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="24">
-        <f t="shared" si="1"/>
-        <v>44682</v>
+        <v>44044</v>
       </c>
       <c r="B44" s="12"/>
       <c r="C44" s="14">
@@ -2402,10 +2381,9 @@
       <c r="J44" s="12"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="24">
-        <f t="shared" si="1"/>
-        <v>44713</v>
+        <v>44075</v>
       </c>
       <c r="B45" s="12"/>
       <c r="C45" s="14">
@@ -2423,108 +2401,99 @@
       <c r="J45" s="12"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="24">
-        <f t="shared" si="1"/>
-        <v>44743</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H46" s="12">
-        <v>1</v>
-      </c>
-      <c r="I46" s="9"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="39">
-        <v>44770</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="24"/>
-      <c r="B47" s="13"/>
+        <v>44105</v>
+      </c>
+      <c r="B46" s="13"/>
+      <c r="C46" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D46" s="13"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H46" s="13"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="16"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="24">
+        <v>44136</v>
+      </c>
+      <c r="B47" s="12"/>
       <c r="C47" s="14">
         <v>1.25</v>
       </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="13"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="12"/>
       <c r="G47" s="14">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H47" s="13"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="16"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H47" s="12"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="21"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="24">
-        <v>44774</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>49</v>
+        <v>44166</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="C48" s="14">
         <v>1.25</v>
       </c>
-      <c r="D48" s="13"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="13"/>
+      <c r="D48" s="12">
+        <v>5</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="12"/>
       <c r="G48" s="14">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H48" s="12">
-        <v>2</v>
-      </c>
+      <c r="H48" s="12"/>
       <c r="I48" s="9"/>
       <c r="J48" s="12"/>
-      <c r="K48" s="21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="24"/>
-      <c r="B49" s="21" t="s">
-        <v>48</v>
-      </c>
+      <c r="K48" s="21"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="12"/>
       <c r="C49" s="14"/>
-      <c r="D49" s="42"/>
+      <c r="D49" s="12"/>
       <c r="E49" s="9"/>
-      <c r="F49" s="21"/>
+      <c r="F49" s="12"/>
       <c r="G49" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H49" s="42">
-        <v>1</v>
-      </c>
+      <c r="H49" s="12"/>
       <c r="I49" s="9"/>
       <c r="J49" s="12"/>
-      <c r="K49" s="39">
-        <v>44783</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K49" s="21"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="24">
-        <v>44805</v>
-      </c>
-      <c r="B50" s="13"/>
+        <v>44197</v>
+      </c>
+      <c r="B50" s="12"/>
       <c r="C50" s="14">
         <v>1.25</v>
       </c>
-      <c r="D50" s="13"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="13"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="12"/>
       <c r="G50" s="14">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -2534,177 +2503,165 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="24">
-        <v>44835</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>49</v>
-      </c>
+        <f>EDATE(A50,1)</f>
+        <v>44228</v>
+      </c>
+      <c r="B51" s="12"/>
       <c r="C51" s="14">
         <v>1.25</v>
       </c>
-      <c r="D51" s="13"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="13"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="12"/>
       <c r="G51" s="14">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H51" s="12">
-        <v>2</v>
-      </c>
+      <c r="H51" s="12"/>
       <c r="I51" s="9"/>
       <c r="J51" s="12"/>
-      <c r="K51" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="24"/>
-      <c r="B52" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C52" s="14"/>
-      <c r="D52" s="42"/>
+      <c r="K51" s="21"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="24">
+        <f t="shared" ref="A52:A60" si="0">EDATE(A51,1)</f>
+        <v>44256</v>
+      </c>
+      <c r="B52" s="12"/>
+      <c r="C52" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D52" s="12"/>
       <c r="E52" s="9"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H52" s="42">
-        <v>1</v>
-      </c>
+      <c r="F52" s="12"/>
+      <c r="G52" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H52" s="12"/>
       <c r="I52" s="9"/>
       <c r="J52" s="12"/>
-      <c r="K52" s="39">
-        <v>44846</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="24"/>
-      <c r="B53" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C53" s="14"/>
-      <c r="D53" s="42"/>
+      <c r="K52" s="21"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="24">
+        <f t="shared" si="0"/>
+        <v>44287</v>
+      </c>
+      <c r="B53" s="12"/>
+      <c r="C53" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D53" s="12"/>
       <c r="E53" s="9"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H53" s="42">
-        <v>1</v>
-      </c>
+      <c r="F53" s="12"/>
+      <c r="G53" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H53" s="12"/>
       <c r="I53" s="9"/>
       <c r="J53" s="12"/>
-      <c r="K53" s="39">
-        <v>44858</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K53" s="21"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="24">
-        <v>44866</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>49</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>44317</v>
+      </c>
+      <c r="B54" s="12"/>
       <c r="C54" s="14">
         <v>1.25</v>
       </c>
-      <c r="D54" s="13"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="13"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="12"/>
       <c r="G54" s="14">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H54" s="12">
-        <v>2</v>
-      </c>
+      <c r="H54" s="12"/>
       <c r="I54" s="9"/>
       <c r="J54" s="12"/>
-      <c r="K54" s="21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K54" s="21"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="24">
-        <v>44896</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>49</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>44348</v>
+      </c>
+      <c r="B55" s="12"/>
       <c r="C55" s="14">
         <v>1.25</v>
       </c>
-      <c r="D55" s="13"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="13"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="12"/>
       <c r="G55" s="14">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H55" s="12">
-        <v>2</v>
-      </c>
+      <c r="H55" s="12"/>
       <c r="I55" s="9"/>
       <c r="J55" s="12"/>
-      <c r="K55" s="21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="24"/>
-      <c r="B56" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C56" s="14"/>
-      <c r="D56" s="13">
-        <v>5</v>
-      </c>
-      <c r="E56" s="10"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="K55" s="21"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="24">
+        <f t="shared" si="0"/>
+        <v>44378</v>
+      </c>
+      <c r="B56" s="12"/>
+      <c r="C56" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D56" s="12"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H56" s="12"/>
       <c r="I56" s="9"/>
       <c r="J56" s="12"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="24">
+        <f t="shared" si="0"/>
+        <v>44409</v>
+      </c>
+      <c r="B57" s="12"/>
+      <c r="C57" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D57" s="12"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H57" s="12"/>
       <c r="I57" s="9"/>
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="24">
-        <v>44927</v>
-      </c>
-      <c r="B58" s="13"/>
+        <f t="shared" si="0"/>
+        <v>44440</v>
+      </c>
+      <c r="B58" s="12"/>
       <c r="C58" s="14">
         <v>1.25</v>
       </c>
-      <c r="D58" s="13"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="13"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="12"/>
       <c r="G58" s="14">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -2714,17 +2671,18 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="24">
-        <v>44958</v>
-      </c>
-      <c r="B59" s="13"/>
+        <f t="shared" si="0"/>
+        <v>44470</v>
+      </c>
+      <c r="B59" s="12"/>
       <c r="C59" s="14">
         <v>1.25</v>
       </c>
-      <c r="D59" s="13"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="13"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="12"/>
       <c r="G59" s="14">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -2734,17 +2692,18 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="24">
-        <v>44986</v>
-      </c>
-      <c r="B60" s="13"/>
+        <f t="shared" si="0"/>
+        <v>44501</v>
+      </c>
+      <c r="B60" s="12"/>
       <c r="C60" s="14">
         <v>1.25</v>
       </c>
-      <c r="D60" s="13"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="13"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="12"/>
       <c r="G60" s="14">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -2754,24 +2713,35 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="24"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H61" s="13"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="16"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="24"/>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="24">
+        <f>EDATE(A60,1)</f>
+        <v>44531</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D61" s="12">
+        <v>5</v>
+      </c>
+      <c r="E61" s="9"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H61" s="12"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="21"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="38" t="s">
+        <v>47</v>
+      </c>
       <c r="B62" s="12"/>
       <c r="C62" s="14"/>
       <c r="D62" s="12"/>
@@ -2786,89 +2756,467 @@
       <c r="J62" s="12"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="24"/>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="24">
+        <v>44562</v>
+      </c>
       <c r="B63" s="12"/>
-      <c r="C63" s="14"/>
+      <c r="C63" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D63" s="12"/>
       <c r="E63" s="9"/>
       <c r="F63" s="12"/>
-      <c r="G63" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G63" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H63" s="12"/>
       <c r="I63" s="9"/>
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="24"/>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="24">
+        <f>EDATE(A63,1)</f>
+        <v>44593</v>
+      </c>
       <c r="B64" s="12"/>
-      <c r="C64" s="14"/>
+      <c r="C64" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D64" s="12"/>
       <c r="E64" s="9"/>
       <c r="F64" s="12"/>
-      <c r="G64" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G64" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H64" s="12"/>
       <c r="I64" s="9"/>
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="24"/>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="24">
+        <f t="shared" ref="A65:A69" si="1">EDATE(A64,1)</f>
+        <v>44621</v>
+      </c>
       <c r="B65" s="12"/>
-      <c r="C65" s="14"/>
+      <c r="C65" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D65" s="12"/>
       <c r="E65" s="9"/>
       <c r="F65" s="12"/>
-      <c r="G65" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G65" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H65" s="12"/>
       <c r="I65" s="9"/>
       <c r="J65" s="12"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="24"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="14" t="str">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="24">
+        <f t="shared" si="1"/>
+        <v>44652</v>
+      </c>
+      <c r="B66" s="12"/>
+      <c r="C66" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D66" s="12"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H66" s="12"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="21"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="24">
+        <f t="shared" si="1"/>
+        <v>44682</v>
+      </c>
+      <c r="B67" s="12"/>
+      <c r="C67" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D67" s="12"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H67" s="12"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="21"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="24">
+        <f t="shared" si="1"/>
+        <v>44713</v>
+      </c>
+      <c r="B68" s="12"/>
+      <c r="C68" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D68" s="12"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H68" s="12"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="21"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="24">
+        <f t="shared" si="1"/>
+        <v>44743</v>
+      </c>
+      <c r="B69" s="12"/>
+      <c r="C69" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D69" s="12"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H69" s="12"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="39"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="24">
+        <v>44774</v>
+      </c>
+      <c r="B70" s="13"/>
+      <c r="C70" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D70" s="13"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H70" s="12"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="21"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="24">
+        <v>44805</v>
+      </c>
+      <c r="B71" s="13"/>
+      <c r="C71" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D71" s="13"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H71" s="12"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="21"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="24">
+        <v>44835</v>
+      </c>
+      <c r="B72" s="13"/>
+      <c r="C72" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D72" s="13"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H72" s="12"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="21"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="24">
+        <v>44866</v>
+      </c>
+      <c r="B73" s="13"/>
+      <c r="C73" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D73" s="13"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H73" s="12"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="21"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="24">
+        <v>44896</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C74" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D74" s="13">
+        <v>5</v>
+      </c>
+      <c r="E74" s="10"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H74" s="12"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="21"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B75" s="13"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H66" s="13"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="16"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="21"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="24">
+        <v>44957</v>
+      </c>
+      <c r="B76" s="13"/>
+      <c r="C76" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D76" s="13"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H76" s="12"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="21"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="24">
+        <v>44985</v>
+      </c>
+      <c r="B77" s="13"/>
+      <c r="C77" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D77" s="13"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H77" s="12"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="21"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="24">
+        <v>45016</v>
+      </c>
+      <c r="B78" s="13"/>
+      <c r="C78" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D78" s="13"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H78" s="12"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="21"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="24">
+        <v>45046</v>
+      </c>
+      <c r="B79" s="13"/>
+      <c r="C79" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D79" s="13"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H79" s="13"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="16"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="24">
+        <v>45077</v>
+      </c>
+      <c r="B80" s="12"/>
+      <c r="C80" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D80" s="12"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H80" s="12"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="21"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="24">
+        <v>45107</v>
+      </c>
+      <c r="B81" s="12"/>
+      <c r="C81" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D81" s="12"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H81" s="12"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="21"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="24">
+        <v>45138</v>
+      </c>
+      <c r="B82" s="12"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H82" s="12"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="21"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="24">
+        <v>45169</v>
+      </c>
+      <c r="B83" s="12"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H83" s="12"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="21"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="24">
+        <v>45199</v>
+      </c>
+      <c r="B84" s="13"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H84" s="13"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="13"/>
+      <c r="K84" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2891,34 +3239,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A10" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A10" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -2930,16 +3278,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -2948,18 +3296,18 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="52">
         <v>42196</v>
       </c>
-      <c r="G3" s="49"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -2970,18 +3318,18 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="49"/>
+      <c r="F4" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="50"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="50"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -2989,7 +3337,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -3002,24 +3350,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3054,7 +3402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -3073,12 +3421,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>55.292000000000002</v>
+        <v>54.292000000000002</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
         <v>47</v>
       </c>
@@ -3096,7 +3444,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>44743</v>
       </c>
@@ -3120,7 +3468,7 @@
         <v>44770</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <v>44774</v>
       </c>
@@ -3144,7 +3492,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="24"/>
       <c r="B13" s="21" t="s">
         <v>48</v>
@@ -3166,7 +3514,7 @@
         <v>44783</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>44835</v>
       </c>
@@ -3190,7 +3538,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
       <c r="B15" s="21" t="s">
         <v>48</v>
@@ -3212,7 +3560,7 @@
         <v>44846</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="24"/>
       <c r="B16" s="21" t="s">
         <v>48</v>
@@ -3234,7 +3582,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>44866</v>
       </c>
@@ -3258,7 +3606,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <v>44896</v>
       </c>
@@ -3280,9 +3628,9 @@
       <c r="J18" s="12"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="14"/>
@@ -3298,7 +3646,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="24">
         <v>44927</v>
       </c>
@@ -3322,7 +3670,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="24"/>
       <c r="B21" s="13" t="s">
         <v>49</v>
@@ -3341,10 +3689,10 @@
       <c r="I21" s="9"/>
       <c r="J21" s="12"/>
       <c r="K21" s="39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="24">
         <v>44958</v>
       </c>
@@ -3365,10 +3713,10 @@
       <c r="I22" s="9"/>
       <c r="J22" s="12"/>
       <c r="K22" s="21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="24">
         <v>44986</v>
       </c>
@@ -3392,7 +3740,7 @@
         <v>44987</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="24"/>
       <c r="B24" s="13" t="s">
         <v>48</v>
@@ -3414,7 +3762,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="24">
         <v>45017</v>
       </c>
@@ -3438,7 +3786,7 @@
         <v>45040</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="24">
         <v>45047</v>
       </c>
@@ -3459,10 +3807,10 @@
       <c r="I26" s="9"/>
       <c r="J26" s="12"/>
       <c r="K26" s="21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="24"/>
       <c r="B27" s="12" t="s">
         <v>48</v>
@@ -3484,9 +3832,13 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="12"/>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="24">
+        <v>45106</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="C28" s="14"/>
       <c r="D28" s="12"/>
       <c r="E28" s="9"/>
@@ -3495,12 +3847,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H28" s="12"/>
+      <c r="H28" s="12">
+        <v>1</v>
+      </c>
       <c r="I28" s="9"/>
       <c r="J28" s="12"/>
-      <c r="K28" s="21"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K28" s="39">
+        <v>45104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="24"/>
       <c r="B29" s="13"/>
       <c r="C29" s="14"/>
@@ -3531,10 +3887,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3557,28 +3913,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="40" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="40" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="56" t="s">
         <v>33</v>
       </c>
@@ -3591,7 +3947,7 @@
       <c r="K1" s="57"/>
       <c r="L1" s="57"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>24</v>
       </c>
@@ -3620,7 +3976,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="36">
         <v>64.542000000000002</v>
       </c>
@@ -3644,17 +4000,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G4" s="34"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="41" t="s">
         <v>28</v>
       </c>
@@ -3675,7 +4031,7 @@
       <c r="K6" s="58"/>
       <c r="L6" s="58"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="40">
         <v>1</v>
       </c>
@@ -3702,7 +4058,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="40">
         <v>2</v>
       </c>
@@ -3728,7 +4084,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="40">
         <v>3</v>
       </c>
@@ -3754,7 +4110,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="40">
         <v>4</v>
       </c>
@@ -3780,7 +4136,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="40">
         <v>5</v>
       </c>
@@ -3806,7 +4162,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="40">
         <v>6</v>
       </c>
@@ -3832,7 +4188,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="40">
         <v>7</v>
       </c>
@@ -3858,7 +4214,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="40">
         <v>8</v>
       </c>
@@ -3884,7 +4240,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="40">
         <v>9</v>
       </c>
@@ -3904,7 +4260,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="40">
         <v>10</v>
       </c>
@@ -3924,7 +4280,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="40">
         <v>11</v>
       </c>
@@ -3944,7 +4300,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="40">
         <v>12</v>
       </c>
@@ -3965,7 +4321,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="40">
         <v>13</v>
       </c>
@@ -3986,7 +4342,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="40">
         <v>14</v>
       </c>
@@ -4007,7 +4363,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="40">
         <v>15</v>
       </c>
@@ -4028,7 +4384,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="40">
         <v>16</v>
       </c>
@@ -4049,7 +4405,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="40">
         <v>17</v>
       </c>
@@ -4070,7 +4426,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="40">
         <v>18</v>
       </c>
@@ -4091,7 +4447,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="40">
         <v>19</v>
       </c>
@@ -4112,7 +4468,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="40">
         <v>20</v>
       </c>
@@ -4133,7 +4489,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="40">
         <v>21</v>
       </c>
@@ -4154,7 +4510,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="40">
         <v>22</v>
       </c>
@@ -4175,7 +4531,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="40">
         <v>23</v>
       </c>
@@ -4196,7 +4552,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="40">
         <v>24</v>
       </c>
@@ -4217,7 +4573,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="40">
         <v>25</v>
       </c>
@@ -4238,7 +4594,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="40">
         <v>26</v>
       </c>
@@ -4259,7 +4615,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="40">
         <v>27</v>
       </c>
@@ -4280,7 +4636,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="40">
         <v>28</v>
       </c>
@@ -4301,7 +4657,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="40">
         <v>29</v>
       </c>
@@ -4322,7 +4678,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="40">
         <v>30</v>
       </c>
@@ -4343,7 +4699,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="40">
         <v>31</v>
       </c>
@@ -4364,7 +4720,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="40">
         <v>32</v>
       </c>
@@ -4373,7 +4729,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="40">
         <v>33</v>
       </c>
@@ -4382,7 +4738,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="40">
         <v>34</v>
       </c>
@@ -4391,7 +4747,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="40">
         <v>35</v>
       </c>
@@ -4400,7 +4756,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="40">
         <v>36</v>
       </c>
@@ -4409,7 +4765,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="40">
         <v>37</v>
       </c>
@@ -4418,7 +4774,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="40">
         <v>38</v>
       </c>
@@ -4427,7 +4783,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="40">
         <v>39</v>
       </c>
@@ -4436,7 +4792,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="40">
         <v>40</v>
       </c>
@@ -4445,7 +4801,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="40">
         <v>41</v>
       </c>
@@ -4454,7 +4810,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="40">
         <v>42</v>
       </c>
@@ -4463,7 +4819,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="40">
         <v>43</v>
       </c>
@@ -4472,7 +4828,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="40">
         <v>44</v>
       </c>
@@ -4481,7 +4837,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="40">
         <v>45</v>
       </c>
@@ -4490,7 +4846,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="40">
         <v>46</v>
       </c>
@@ -4499,7 +4855,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="40">
         <v>47</v>
       </c>
@@ -4508,7 +4864,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="40">
         <v>48</v>
       </c>
@@ -4517,7 +4873,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="40">
         <v>49</v>
       </c>
@@ -4526,7 +4882,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="40">
         <v>50</v>
       </c>
@@ -4535,7 +4891,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="40">
         <v>51</v>
       </c>
@@ -4544,7 +4900,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="40">
         <v>52</v>
       </c>
@@ -4553,7 +4909,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="40">
         <v>53</v>
       </c>
@@ -4562,7 +4918,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="40">
         <v>54</v>
       </c>
@@ -4571,7 +4927,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="40">
         <v>55</v>
       </c>
@@ -4580,7 +4936,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="40">
         <v>56</v>
       </c>
@@ -4589,7 +4945,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="40">
         <v>57</v>
       </c>
@@ -4598,7 +4954,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="40">
         <v>58</v>
       </c>
@@ -4607,7 +4963,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="40">
         <v>59</v>
       </c>
@@ -4616,7 +4972,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="40">
         <v>60</v>
       </c>
@@ -4625,7 +4981,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
